--- a/Eindafrekening/src/input_template.xlsx
+++ b/Eindafrekening/src/input_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ryanrent.sharepoint.com/sites/RyanRent/Gedeelde documenten/General/01_RyanRent&amp;Co/Aljereau/Eindafrekening Generator/Eindafrekening/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_EB5ACED643EA3038621F3BFB47BC5E468C1DC611" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D670A193-4EA9-2940-9320-F98784DB659E}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="11_EB5ACED643EA3038621F3BFB47BC5E468C1DC611" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1178D50-4567-4646-809F-49AD9035F9AA}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="760" windowWidth="30220" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Algemeen" sheetId="1" r:id="rId1"/>
@@ -3897,9 +3897,6 @@
     <t>Totaal Schade incl. BTW (automatisch)</t>
   </si>
   <si>
-    <t>Achteraf Betaald</t>
-  </si>
-  <si>
     <t>Levering</t>
   </si>
   <si>
@@ -3943,6 +3940,9 @@
   </si>
   <si>
     <t>Vattenfal</t>
+  </si>
+  <si>
+    <t>Intensief Schoonmaak</t>
   </si>
 </sst>
 </file>
@@ -4522,9 +4522,9 @@
   </sheetPr>
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4551,7 +4551,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>257</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -4568,7 +4568,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -4591,7 +4591,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>849</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B11" s="3" t="str">
         <f>IFERROR(VLOOKUP(B10,Lists!$A:$B,2,FALSE),"")</f>
-        <v>0179</v>
+        <v>0341</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -4614,7 +4614,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -4622,7 +4622,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -4631,7 +4631,7 @@
       </c>
       <c r="B15" s="3" t="str">
         <f>IF(B10="","",VLOOKUP(B10,Lists!$A$2:$B$253,2,FALSE))</f>
-        <v>0179</v>
+        <v>0341</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -4684,8 +4684,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="7">
-        <f>300*-1*D28</f>
-        <v>5700.821917808219</v>
+        <v>400</v>
       </c>
       <c r="D24">
         <f>sdd</f>
@@ -4696,7 +4695,9 @@
       <c r="A25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="7"/>
+      <c r="B25" s="7">
+        <v>350</v>
+      </c>
       <c r="D25">
         <f>Incheck_datum</f>
         <v>45383</v>
@@ -4747,7 +4748,7 @@
         <v>24</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1266</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -4756,7 +4757,7 @@
       </c>
       <c r="B32" s="6">
         <f>IF(B31="Basis Schoonmaak",5,IF(B31="Intensief Schoonmaak",7,IF(B31="Achteraf Betaald",0,"")))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -4782,7 +4783,7 @@
       </c>
       <c r="B35" s="9">
         <f>MAX(0,Schoonmaak_totaal_kosten-Voorschot_schoonmaak)</f>
-        <v>350</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -4790,7 +4791,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -4798,7 +4799,7 @@
         <v>30</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -4885,7 +4886,7 @@
       </c>
       <c r="B51" s="9">
         <f>IF([0]!GWE_totaal_incl="","",Voorschot_GWE-[0]!GWE_totaal_incl)</f>
-        <v>-1949.7802767017793</v>
+        <v>-7221.9641945099993</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -4918,9 +4919,9 @@
       <c r="A55" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B55" s="12" t="str">
+      <c r="B55" s="12">
         <f>IF(OR(Borg_terug="",GWE_meer_minder="",[0]!Extra_schoonmaak_bedrag=""),"",Borg_terug+GWE_meer_minder-[0]!Extra_schoonmaak_bedrag+IF(Extra_voorschot_bedrag=0,0,Extra_voorschot_terug))</f>
-        <v/>
+        <v>-4121.9641945099993</v>
       </c>
     </row>
   </sheetData>
@@ -9334,9 +9335,9 @@
   </sheetPr>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9484,7 +9485,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="B17" s="20">
         <v>185</v>
@@ -9497,16 +9498,16 @@
         <v>238.65</v>
       </c>
       <c r="E17" s="22">
-        <v>0.21</v>
+        <v>0.09</v>
       </c>
       <c r="F17" s="23">
         <f>D17*E17</f>
-        <v>50.116500000000002</v>
+        <v>21.4785</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B18" s="20">
         <v>579</v>
@@ -9528,7 +9529,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B19" s="20">
         <v>185</v>
@@ -9550,7 +9551,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B20" s="20">
         <v>185</v>
@@ -9572,7 +9573,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B21" s="20">
         <v>3308</v>
@@ -9594,7 +9595,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B22" s="20">
         <v>579</v>
@@ -9616,7 +9617,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B23" s="20">
         <v>579</v>
@@ -9638,7 +9639,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B24" s="20">
         <v>579</v>
@@ -9660,7 +9661,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="B25" s="20">
         <v>3406</v>
@@ -9682,7 +9683,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="B26" s="20">
         <v>579</v>
@@ -9704,7 +9705,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="B27" s="20">
         <v>579</v>
@@ -9893,7 +9894,7 @@
       </c>
       <c r="B40" s="9">
         <f>SUM(F17:F38)</f>
-        <v>1327.7904635099999</v>
+        <v>1299.15246351</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -9902,7 +9903,7 @@
       </c>
       <c r="B41" s="26">
         <f>IF(B39="","",B39+B40)</f>
-        <v>7650.6021945099983</v>
+        <v>7621.9641945099993</v>
       </c>
     </row>
   </sheetData>
@@ -9953,16 +9954,16 @@
       </c>
       <c r="B4" s="27" t="str">
         <f>[0]!Schoonmaak_pakket</f>
-        <v>Achteraf Betaald</v>
+        <v>Intensief Schoonmaak</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="6" t="str">
+      <c r="B5" s="6">
         <f>IF(B4="Basis Schoonmaak",5,IF(B4="Intensief Schoonmaak",7,""))</f>
-        <v/>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -9977,9 +9978,9 @@
       <c r="A7" s="1" t="s">
         <v>1256</v>
       </c>
-      <c r="B7" s="29" t="str">
+      <c r="B7" s="29">
         <f>IF(AND(B5&lt;&gt;"",B6&lt;&gt;""),MAX(0,B6-B5),"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -9995,9 +9996,9 @@
       <c r="A9" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="26" t="str">
+      <c r="B9" s="26">
         <f>IF(AND(B7&lt;&gt;"",B8&lt;&gt;""),B7*B8,"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10017,8 +10018,8 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="5" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Eindafrekening/src/input_template.xlsx
+++ b/Eindafrekening/src/input_template.xlsx
@@ -10915,4 +10915,271 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FD8216A3BCF59A4CAC1EDC9B65F03F94" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7a5dd83b0615c7ab65f6e497dc3f1a67">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7e7f2dcd-0c2b-4478-ad05-247cf739c5b2" xmlns:ns3="7c6541c9-858d-46cc-aee4-1fa681dc1bd6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8b3083ab368e81f90f854d4b93d60013" ns2:_="" ns3:_="">
+    <xsd:import namespace="7e7f2dcd-0c2b-4478-ad05-247cf739c5b2"/>
+    <xsd:import namespace="7c6541c9-858d-46cc-aee4-1fa681dc1bd6"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7e7f2dcd-0c2b-4478-ad05-247cf739c5b2" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="11" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="5bd66242-e0b1-4d5e-a424-ed2be647a714" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="18" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="21" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="22" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7c6541c9-858d-46cc-aee4-1fa681dc1bd6" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="16" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{5de6d577-5e06-4df3-9e53-a11405c55b7c}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="7c6541c9-858d-46cc-aee4-1fa681dc1bd6">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7e7f2dcd-0c2b-4478-ad05-247cf739c5b2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="7c6541c9-858d-46cc-aee4-1fa681dc1bd6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F535161D-09A4-4B9E-9FFE-BFC8F258B91B}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E33E84A3-F100-420F-9D37-1236AD4900DC}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE56B666-500F-405F-8426-8E6F8674D0EE}"/>
 </file>
--- a/Eindafrekening/src/input_template.xlsx
+++ b/Eindafrekening/src/input_template.xlsx
@@ -21074,4 +21074,271 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FD8216A3BCF59A4CAC1EDC9B65F03F94" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7a5dd83b0615c7ab65f6e497dc3f1a67">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7e7f2dcd-0c2b-4478-ad05-247cf739c5b2" xmlns:ns3="7c6541c9-858d-46cc-aee4-1fa681dc1bd6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8b3083ab368e81f90f854d4b93d60013" ns2:_="" ns3:_="">
+    <xsd:import namespace="7e7f2dcd-0c2b-4478-ad05-247cf739c5b2"/>
+    <xsd:import namespace="7c6541c9-858d-46cc-aee4-1fa681dc1bd6"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7e7f2dcd-0c2b-4478-ad05-247cf739c5b2" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="11" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="5bd66242-e0b1-4d5e-a424-ed2be647a714" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="18" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="21" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="22" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7c6541c9-858d-46cc-aee4-1fa681dc1bd6" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="16" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{5de6d577-5e06-4df3-9e53-a11405c55b7c}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="7c6541c9-858d-46cc-aee4-1fa681dc1bd6">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7e7f2dcd-0c2b-4478-ad05-247cf739c5b2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="7c6541c9-858d-46cc-aee4-1fa681dc1bd6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBAB3AFC-BD81-41B4-BFA3-8DBB643AEEF0}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8AA0CD3-462F-41F5-8A19-471FBDD62795}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0E38D57-A8BB-4CB5-9557-6602F4EE065D}"/>
 </file>